--- a/data/pca/factorExposure/factorExposure_2019-02-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-02-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +726,106 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.1132193561414272</v>
+        <v>-0.06765953288261255</v>
       </c>
       <c r="C2">
-        <v>0.01780830814577713</v>
+        <v>0.03368404382552295</v>
       </c>
       <c r="D2">
-        <v>-0.0451344221648717</v>
+        <v>0.01728679649485166</v>
       </c>
       <c r="E2">
-        <v>-0.09183927491648676</v>
+        <v>0.03958884426001232</v>
       </c>
       <c r="F2">
-        <v>-0.1098780832855172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.1361939067329229</v>
+      </c>
+      <c r="G2">
+        <v>0.07015285874125499</v>
+      </c>
+      <c r="H2">
+        <v>-0.04285298960213354</v>
+      </c>
+      <c r="I2">
+        <v>-0.06836258422338697</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.2197072144998719</v>
+        <v>-0.1605996869163679</v>
       </c>
       <c r="C3">
-        <v>0.1462276136684252</v>
+        <v>0.1053988086246694</v>
       </c>
       <c r="D3">
-        <v>0.04148782572707803</v>
+        <v>-0.007728617866599218</v>
       </c>
       <c r="E3">
-        <v>-0.132967954808961</v>
+        <v>-0.002571798139958026</v>
       </c>
       <c r="F3">
-        <v>-0.3268880073315463</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.3768068932214359</v>
+      </c>
+      <c r="G3">
+        <v>0.2753808369935891</v>
+      </c>
+      <c r="H3">
+        <v>-0.04844372959323136</v>
+      </c>
+      <c r="I3">
+        <v>-0.3154150374570397</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.09722912630451164</v>
+        <v>-0.07242565048139527</v>
       </c>
       <c r="C4">
-        <v>0.04716157652916004</v>
+        <v>0.04746896008782776</v>
       </c>
       <c r="D4">
-        <v>-0.03378854864435107</v>
+        <v>-0.01603349191586825</v>
       </c>
       <c r="E4">
-        <v>-0.02461091562616874</v>
+        <v>0.04176576639914471</v>
       </c>
       <c r="F4">
-        <v>-0.07143256249505568</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.07974995328026406</v>
+      </c>
+      <c r="G4">
+        <v>0.02949376720031628</v>
+      </c>
+      <c r="H4">
+        <v>-0.04141359951356585</v>
+      </c>
+      <c r="I4">
+        <v>-0.04016207953883635</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +842,280 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-0.02062354586459068</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.01030207000457922</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.004921694364598257</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.00474448577417629</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.007290486070190468</v>
+      </c>
+      <c r="G6">
+        <v>-0.01258485866178288</v>
+      </c>
+      <c r="H6">
+        <v>0.01858507900557343</v>
+      </c>
+      <c r="I6">
+        <v>0.01585844522373692</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.04386834389339183</v>
+        <v>-0.03474414939388643</v>
       </c>
       <c r="C7">
-        <v>0.02041760433875497</v>
+        <v>0.01775628276705606</v>
       </c>
       <c r="D7">
-        <v>-0.03095024422496156</v>
+        <v>-0.03650880287419811</v>
       </c>
       <c r="E7">
-        <v>-0.05924012034995192</v>
+        <v>0.02825663546719148</v>
       </c>
       <c r="F7">
-        <v>-0.03637163243485627</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.04905849261599667</v>
+      </c>
+      <c r="G7">
+        <v>0.05318665678344633</v>
+      </c>
+      <c r="H7">
+        <v>0.007981635876707336</v>
+      </c>
+      <c r="I7">
+        <v>-0.01490562015264178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.04732318619861475</v>
+        <v>-0.02847742651569462</v>
       </c>
       <c r="C8">
-        <v>0.05537194175915557</v>
+        <v>0.05099927579736153</v>
       </c>
       <c r="D8">
-        <v>-0.0104433171468086</v>
+        <v>-0.01338768103600752</v>
       </c>
       <c r="E8">
-        <v>-0.01675550019061447</v>
+        <v>0.02172527934316435</v>
       </c>
       <c r="F8">
-        <v>-0.07013319946297693</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.07146241583157351</v>
+      </c>
+      <c r="G8">
+        <v>0.04761942880236015</v>
+      </c>
+      <c r="H8">
+        <v>-0.03375024685235776</v>
+      </c>
+      <c r="I8">
+        <v>-0.04974676112067971</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.08303150170646464</v>
+        <v>-0.06132293278714526</v>
       </c>
       <c r="C9">
-        <v>0.04150290454148841</v>
+        <v>0.04309089751893767</v>
       </c>
       <c r="D9">
-        <v>-0.04112266591689392</v>
+        <v>-0.01963199670373691</v>
       </c>
       <c r="E9">
-        <v>-0.002966800420753477</v>
+        <v>0.03657557852602557</v>
       </c>
       <c r="F9">
-        <v>-0.06765590227375387</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.07862097354334692</v>
+      </c>
+      <c r="G9">
+        <v>0.02759967087273552</v>
+      </c>
+      <c r="H9">
+        <v>-0.0386059875694818</v>
+      </c>
+      <c r="I9">
+        <v>-0.01727321650767919</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.02727679222930365</v>
+        <v>-0.03693545608189614</v>
       </c>
       <c r="C10">
-        <v>-0.1647819028510824</v>
+        <v>-0.1613687419217959</v>
       </c>
       <c r="D10">
-        <v>0.02867021005200416</v>
+        <v>0.01379298319714022</v>
       </c>
       <c r="E10">
-        <v>-0.06206193052089103</v>
+        <v>-0.03665366019793931</v>
       </c>
       <c r="F10">
-        <v>-0.03726178180463052</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.06518090667783832</v>
+      </c>
+      <c r="G10">
+        <v>0.01311211840378981</v>
+      </c>
+      <c r="H10">
+        <v>-0.03344382070988338</v>
+      </c>
+      <c r="I10">
+        <v>-0.09801960946630341</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.05790103036808934</v>
+        <v>-0.04922442021823177</v>
       </c>
       <c r="C11">
-        <v>0.01678428975190049</v>
+        <v>0.03236837438971554</v>
       </c>
       <c r="D11">
-        <v>0.004026609679395577</v>
+        <v>0.005089923407807459</v>
       </c>
       <c r="E11">
-        <v>-0.03051905699382736</v>
+        <v>0.01042337568596667</v>
       </c>
       <c r="F11">
-        <v>-0.03063435593617122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.0376698419067947</v>
+      </c>
+      <c r="G11">
+        <v>0.003996561077986326</v>
+      </c>
+      <c r="H11">
+        <v>-0.01363754319364804</v>
+      </c>
+      <c r="I11">
+        <v>0.0001196964556055176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.04466315859879721</v>
+        <v>-0.04429399976041304</v>
       </c>
       <c r="C12">
-        <v>0.01923809136736112</v>
+        <v>0.0289678385178188</v>
       </c>
       <c r="D12">
-        <v>0.001559286317047927</v>
+        <v>-0.005987771593590619</v>
       </c>
       <c r="E12">
-        <v>-0.009996693514919315</v>
+        <v>0.01120514250817735</v>
       </c>
       <c r="F12">
-        <v>-0.02656071632843801</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.0147158884340564</v>
+      </c>
+      <c r="G12">
+        <v>0.004835724956614976</v>
+      </c>
+      <c r="H12">
+        <v>-0.003000146999944516</v>
+      </c>
+      <c r="I12">
+        <v>0.002296251446681576</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.0633233314085489</v>
+        <v>-0.04385060421532352</v>
       </c>
       <c r="C13">
-        <v>0.0320751525759002</v>
+        <v>0.02660888398568229</v>
       </c>
       <c r="D13">
-        <v>0.002724622047138634</v>
+        <v>0.01471520509096751</v>
       </c>
       <c r="E13">
-        <v>-0.07303100958316486</v>
+        <v>0.009738901985132727</v>
       </c>
       <c r="F13">
-        <v>-0.08801699344295423</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.1039502983026417</v>
+      </c>
+      <c r="G13">
+        <v>0.04283754014905335</v>
+      </c>
+      <c r="H13">
+        <v>-0.02319273213842575</v>
+      </c>
+      <c r="I13">
+        <v>-0.02991386260115369</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.03387721923415987</v>
+        <v>-0.02706051813065816</v>
       </c>
       <c r="C14">
-        <v>0.02619116970478227</v>
+        <v>0.02110926526033695</v>
       </c>
       <c r="D14">
-        <v>-0.02815875900128646</v>
+        <v>-0.006580304504791404</v>
       </c>
       <c r="E14">
-        <v>-0.02801115630660448</v>
+        <v>0.02735788067757547</v>
       </c>
       <c r="F14">
-        <v>-0.01420373380220544</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.03568426286863931</v>
+      </c>
+      <c r="G14">
+        <v>0.05755592775166639</v>
+      </c>
+      <c r="H14">
+        <v>-0.008793895433204737</v>
+      </c>
+      <c r="I14">
+        <v>-0.01205463704238222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1132,48 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.04791800361341392</v>
+        <v>-0.04240472257387179</v>
       </c>
       <c r="C16">
-        <v>0.02501175412298935</v>
+        <v>0.03628961392465376</v>
       </c>
       <c r="D16">
-        <v>0.006081792300366548</v>
+        <v>-0.0004568797306485412</v>
       </c>
       <c r="E16">
-        <v>-0.0192588230796165</v>
+        <v>0.009340472550154438</v>
       </c>
       <c r="F16">
-        <v>-0.02776752124227282</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.03454237348593268</v>
+      </c>
+      <c r="G16">
+        <v>0.004826563267175185</v>
+      </c>
+      <c r="H16">
+        <v>-0.002748544494017735</v>
+      </c>
+      <c r="I16">
+        <v>-0.005974734769865818</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1190,19 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1219,106 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.06047360401550683</v>
+        <v>-0.05126816571430935</v>
       </c>
       <c r="C19">
-        <v>0.04603722410703211</v>
+        <v>0.04501387010161662</v>
       </c>
       <c r="D19">
-        <v>-0.003032543852734753</v>
+        <v>0.001675726044166634</v>
       </c>
       <c r="E19">
-        <v>-0.04779303242993235</v>
+        <v>0.02369778933157522</v>
       </c>
       <c r="F19">
-        <v>-0.07014278876410465</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.09010955546324481</v>
+      </c>
+      <c r="G19">
+        <v>0.06485753185290678</v>
+      </c>
+      <c r="H19">
+        <v>-0.004930695710561129</v>
+      </c>
+      <c r="I19">
+        <v>-0.05005047036950404</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.03831196527150065</v>
+        <v>-0.01904015122048529</v>
       </c>
       <c r="C20">
-        <v>0.03984815014808123</v>
+        <v>0.02963322322701792</v>
       </c>
       <c r="D20">
-        <v>-0.01844448717878179</v>
+        <v>-0.006608225541563961</v>
       </c>
       <c r="E20">
-        <v>-0.02793369251828198</v>
+        <v>0.02258390580135144</v>
       </c>
       <c r="F20">
-        <v>-0.05947894875754717</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.06370878669511823</v>
+      </c>
+      <c r="G20">
+        <v>0.06143305157707757</v>
+      </c>
+      <c r="H20">
+        <v>-5.074817196687857e-05</v>
+      </c>
+      <c r="I20">
+        <v>-0.05028269490581797</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.03322933608252381</v>
+        <v>-0.03234260537349623</v>
       </c>
       <c r="C21">
-        <v>0.03603447281799147</v>
+        <v>0.02933434719952382</v>
       </c>
       <c r="D21">
-        <v>-0.007688078442959832</v>
+        <v>-0.01306143931603754</v>
       </c>
       <c r="E21">
-        <v>-0.07343473634187138</v>
+        <v>0.008459070901602393</v>
       </c>
       <c r="F21">
-        <v>-0.07909997354190748</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.08098496875233806</v>
+      </c>
+      <c r="G21">
+        <v>0.02949214535535408</v>
+      </c>
+      <c r="H21">
+        <v>-0.04224138958135308</v>
+      </c>
+      <c r="I21">
+        <v>0.01524991023300698</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1335,19 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1364,338 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.05129585015233334</v>
+        <v>-0.04189307603279135</v>
       </c>
       <c r="C24">
-        <v>0.02208053081074321</v>
+        <v>0.02975619239876228</v>
       </c>
       <c r="D24">
-        <v>0.001518428145073702</v>
+        <v>-0.0008828138674596716</v>
       </c>
       <c r="E24">
-        <v>-0.02105026224525024</v>
+        <v>0.01134986742521632</v>
       </c>
       <c r="F24">
-        <v>-0.03885132784500081</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.03841652582413892</v>
+      </c>
+      <c r="G24">
+        <v>0.003110037448562324</v>
+      </c>
+      <c r="H24">
+        <v>-0.005256213918043127</v>
+      </c>
+      <c r="I24">
+        <v>-0.0004401844574098421</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.05157523971793598</v>
+        <v>-0.0483530935994295</v>
       </c>
       <c r="C25">
-        <v>0.01491815090519041</v>
+        <v>0.02627427311836246</v>
       </c>
       <c r="D25">
-        <v>0.001910598449395637</v>
+        <v>0.0004128446492435615</v>
       </c>
       <c r="E25">
-        <v>-0.02390534943165605</v>
+        <v>0.009505334035402794</v>
       </c>
       <c r="F25">
-        <v>-0.03391589611327945</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.0437199891166181</v>
+      </c>
+      <c r="G25">
+        <v>0.002953652286871664</v>
+      </c>
+      <c r="H25">
+        <v>-0.01188649852680656</v>
+      </c>
+      <c r="I25">
+        <v>0.004984448632104559</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.02104046158845118</v>
+        <v>-0.01774196938825659</v>
       </c>
       <c r="C26">
-        <v>0.03253219951725594</v>
+        <v>0.02695695815149621</v>
       </c>
       <c r="D26">
-        <v>-0.007947843708016275</v>
+        <v>0.00353976646241026</v>
       </c>
       <c r="E26">
-        <v>-0.04478929093605781</v>
+        <v>0.002455457583099219</v>
       </c>
       <c r="F26">
-        <v>-0.01170945502528101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.04309980951956185</v>
+      </c>
+      <c r="G26">
+        <v>0.03859107706666472</v>
+      </c>
+      <c r="H26">
+        <v>-0.008998974012000911</v>
+      </c>
+      <c r="I26">
+        <v>-0.001494852026671557</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>0.1198146669353522</v>
+        <v>-0.07273648191579209</v>
       </c>
       <c r="C27">
-        <v>0.03399872676624073</v>
+        <v>0.02784047131474074</v>
       </c>
       <c r="D27">
-        <v>-0.02114069726916124</v>
+        <v>-0.005746929136905078</v>
       </c>
       <c r="E27">
-        <v>-0.03013404972460089</v>
+        <v>0.03592245917149654</v>
       </c>
       <c r="F27">
-        <v>-0.07635505257545279</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.06421827101280782</v>
+      </c>
+      <c r="G27">
+        <v>0.01812598922387437</v>
+      </c>
+      <c r="H27">
+        <v>-0.02236162412780262</v>
+      </c>
+      <c r="I27">
+        <v>-0.0327509339217155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.02547436074822048</v>
+        <v>-0.05433779014259119</v>
       </c>
       <c r="C28">
-        <v>-0.2481543569110057</v>
+        <v>-0.2402177029259187</v>
       </c>
       <c r="D28">
-        <v>0.03783500039312536</v>
+        <v>0.01072916402272578</v>
       </c>
       <c r="E28">
-        <v>-0.04090303180380787</v>
+        <v>-0.05107790204831736</v>
       </c>
       <c r="F28">
-        <v>-0.01858869095300333</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.05457077076972903</v>
+      </c>
+      <c r="G28">
+        <v>0.01074119244071023</v>
+      </c>
+      <c r="H28">
+        <v>-0.03826846133677921</v>
+      </c>
+      <c r="I28">
+        <v>-0.1497442308800274</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.02614596917908619</v>
+        <v>-0.02354302210692788</v>
       </c>
       <c r="C29">
-        <v>0.02494439366372799</v>
+        <v>0.01866379422594641</v>
       </c>
       <c r="D29">
-        <v>-0.03277421395117175</v>
+        <v>-0.01000348860036572</v>
       </c>
       <c r="E29">
-        <v>-0.02206561285037508</v>
+        <v>0.02854100436469365</v>
       </c>
       <c r="F29">
-        <v>-0.01930337196094217</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.0319167228688309</v>
+      </c>
+      <c r="G29">
+        <v>0.0572961697775971</v>
+      </c>
+      <c r="H29">
+        <v>-0.01303011720192028</v>
+      </c>
+      <c r="I29">
+        <v>-0.001606199507385396</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.113296336179156</v>
+        <v>-0.08955623128398885</v>
       </c>
       <c r="C30">
-        <v>0.0260255628774837</v>
+        <v>0.05097239231123514</v>
       </c>
       <c r="D30">
-        <v>-0.03105279547744492</v>
+        <v>0.03663887528130397</v>
       </c>
       <c r="E30">
-        <v>-0.06703204373579183</v>
+        <v>0.03271854899568624</v>
       </c>
       <c r="F30">
-        <v>-0.08621956792812054</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.104394450081698</v>
+      </c>
+      <c r="G30">
+        <v>0.02011282464295004</v>
+      </c>
+      <c r="H30">
+        <v>0.01004065187259916</v>
+      </c>
+      <c r="I30">
+        <v>0.006167581084038378</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.06798279737364223</v>
+        <v>-0.06084335819241501</v>
       </c>
       <c r="C31">
-        <v>0.02125048915995542</v>
+        <v>0.02191710653898008</v>
       </c>
       <c r="D31">
-        <v>-0.01835276897872122</v>
+        <v>0.009559371204729003</v>
       </c>
       <c r="E31">
-        <v>-0.03716022102972437</v>
+        <v>0.02486667309844138</v>
       </c>
       <c r="F31">
-        <v>0.0570186839514638</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.002974716057903578</v>
+      </c>
+      <c r="G31">
+        <v>0.04670182104490076</v>
+      </c>
+      <c r="H31">
+        <v>-0.0264618679438458</v>
+      </c>
+      <c r="I31">
+        <v>-0.0164352747313097</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.07054851456300675</v>
+        <v>-0.04270169726933253</v>
       </c>
       <c r="C32">
-        <v>0.04153430351467579</v>
+        <v>0.04553411825490986</v>
       </c>
       <c r="D32">
-        <v>-0.02511753372009986</v>
+        <v>-0.01667823566583967</v>
       </c>
       <c r="E32">
-        <v>-0.05221091487542446</v>
+        <v>0.03713329294292862</v>
       </c>
       <c r="F32">
-        <v>-0.07968938579827134</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.08381250070065789</v>
+      </c>
+      <c r="G32">
+        <v>0.04246109307834052</v>
+      </c>
+      <c r="H32">
+        <v>-0.01838726893203734</v>
+      </c>
+      <c r="I32">
+        <v>-0.03845610518042366</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.06619852035625565</v>
+        <v>-0.05682151133707299</v>
       </c>
       <c r="C33">
-        <v>0.05887605095138835</v>
+        <v>0.05448607907623424</v>
       </c>
       <c r="D33">
-        <v>-0.01712298550736268</v>
+        <v>0.01740737627170229</v>
       </c>
       <c r="E33">
-        <v>-0.06148910968083737</v>
+        <v>0.01677777347458717</v>
       </c>
       <c r="F33">
-        <v>-0.04493083054928797</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.07369536564688769</v>
+      </c>
+      <c r="G33">
+        <v>0.04589504191664241</v>
+      </c>
+      <c r="H33">
+        <v>-0.03337184063149808</v>
+      </c>
+      <c r="I33">
+        <v>-0.003087112634694906</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.04927370981886666</v>
+        <v>-0.04343692175429383</v>
       </c>
       <c r="C34">
-        <v>0.02212591577197267</v>
+        <v>0.03456845468267689</v>
       </c>
       <c r="D34">
-        <v>-0.003794702549488751</v>
+        <v>-0.005721630515862111</v>
       </c>
       <c r="E34">
-        <v>-0.01763684240537247</v>
+        <v>0.01833945136431554</v>
       </c>
       <c r="F34">
-        <v>-0.02241161081686997</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.03314938577558326</v>
+      </c>
+      <c r="G34">
+        <v>0.009507330469762985</v>
+      </c>
+      <c r="H34">
+        <v>-0.006582884602554523</v>
+      </c>
+      <c r="I34">
+        <v>-0.00148449076688618</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1712,48 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.01632241330815518</v>
+        <v>-0.01600419613361762</v>
       </c>
       <c r="C36">
-        <v>0.00275771268694879</v>
+        <v>0.004206533572005345</v>
       </c>
       <c r="D36">
-        <v>-0.01204664316376123</v>
+        <v>-0.004836727533193628</v>
       </c>
       <c r="E36">
-        <v>-0.01853425547031987</v>
+        <v>0.01026954959673851</v>
       </c>
       <c r="F36">
-        <v>-0.009108765766573691</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.02455289271099258</v>
+      </c>
+      <c r="G36">
+        <v>0.04027312960153353</v>
+      </c>
+      <c r="H36">
+        <v>-0.01561248282506368</v>
+      </c>
+      <c r="I36">
+        <v>0.007021605022654707</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1770,222 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.04651387698591594</v>
+        <v>-0.03523082267405744</v>
       </c>
       <c r="C38">
-        <v>0.02411370446091857</v>
+        <v>0.01542227395371465</v>
       </c>
       <c r="D38">
-        <v>-0.02171035537577817</v>
+        <v>-0.004103696873351863</v>
       </c>
       <c r="E38">
-        <v>-0.006180995198620192</v>
+        <v>0.01262495891064265</v>
       </c>
       <c r="F38">
-        <v>-0.0252181599781913</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.04734895958104456</v>
+      </c>
+      <c r="G38">
+        <v>0.02596809041849266</v>
+      </c>
+      <c r="H38">
+        <v>-0.02699218012548925</v>
+      </c>
+      <c r="I38">
+        <v>0.01575548407353533</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.07049520606788647</v>
+        <v>-0.05352057633605484</v>
       </c>
       <c r="C39">
-        <v>0.02744271935448913</v>
+        <v>0.04669814754816404</v>
       </c>
       <c r="D39">
-        <v>-0.006512769030725431</v>
+        <v>0.003964421501990749</v>
       </c>
       <c r="E39">
-        <v>-0.03448353992807461</v>
+        <v>0.0197871024693866</v>
       </c>
       <c r="F39">
-        <v>-0.02142707491180149</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.05414837680415102</v>
+      </c>
+      <c r="G39">
+        <v>0.00478163750291632</v>
+      </c>
+      <c r="H39">
+        <v>-0.02081348000993519</v>
+      </c>
+      <c r="I39">
+        <v>0.02574933533648705</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.07726511132407765</v>
+        <v>-0.05478556156903162</v>
       </c>
       <c r="C40">
-        <v>0.0438710399396189</v>
+        <v>0.0424340778850814</v>
       </c>
       <c r="D40">
-        <v>-0.01127800823729545</v>
+        <v>0.01861104765030731</v>
       </c>
       <c r="E40">
-        <v>-0.04749732030402159</v>
+        <v>0.02511060736385809</v>
       </c>
       <c r="F40">
-        <v>-0.09912606462359275</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.09445034130798959</v>
+      </c>
+      <c r="G40">
+        <v>0.04826292276921108</v>
+      </c>
+      <c r="H40">
+        <v>-0.02215424641666957</v>
+      </c>
+      <c r="I40">
+        <v>-0.05270539471459626</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.0007629521216669422</v>
+        <v>-0.003631572702998496</v>
       </c>
       <c r="C41">
-        <v>0.03267904548015019</v>
+        <v>0.01213005852114773</v>
       </c>
       <c r="D41">
-        <v>-0.02734038207524282</v>
+        <v>-0.0005519514661245826</v>
       </c>
       <c r="E41">
-        <v>-0.02012917209230026</v>
+        <v>0.01106137373352181</v>
       </c>
       <c r="F41">
-        <v>0.01280370629871739</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.01091689274491241</v>
+      </c>
+      <c r="G41">
+        <v>0.04210279372604721</v>
+      </c>
+      <c r="H41">
+        <v>-0.03132730614061579</v>
+      </c>
+      <c r="I41">
+        <v>-0.02390294760872688</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>0.1300089915576662</v>
+        <v>-0.2258772920508024</v>
       </c>
       <c r="C42">
-        <v>0.2348622253597117</v>
+        <v>0.2708711935948516</v>
       </c>
       <c r="D42">
-        <v>0.9269722891064839</v>
+        <v>0.04770298597178883</v>
       </c>
       <c r="E42">
-        <v>0.01842170500666506</v>
+        <v>-0.9036005925846446</v>
       </c>
       <c r="F42">
-        <v>0.09803120186577241</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.1591610955539692</v>
+      </c>
+      <c r="G42">
+        <v>-0.01418970639763825</v>
+      </c>
+      <c r="H42">
+        <v>0.005759420992720126</v>
+      </c>
+      <c r="I42">
+        <v>-0.06527077475925903</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.004266042768561148</v>
+        <v>-0.008429834293368016</v>
       </c>
       <c r="C43">
-        <v>0.03227847040562162</v>
+        <v>0.01338756132468207</v>
       </c>
       <c r="D43">
-        <v>-0.02116933554621457</v>
+        <v>0.002221333825117031</v>
       </c>
       <c r="E43">
-        <v>-0.03233986148718068</v>
+        <v>0.01115461529232592</v>
       </c>
       <c r="F43">
-        <v>-0.01275658376990909</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.02505229122487165</v>
+      </c>
+      <c r="G43">
+        <v>0.03521868937422921</v>
+      </c>
+      <c r="H43">
+        <v>-0.01621833752155052</v>
+      </c>
+      <c r="I43">
+        <v>-0.02112084433031948</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.04034187674672651</v>
+        <v>-0.02925386968250275</v>
       </c>
       <c r="C44">
-        <v>0.04593151676248723</v>
+        <v>0.03965770908448469</v>
       </c>
       <c r="D44">
-        <v>-0.01510504944826685</v>
+        <v>-0.003178745886041137</v>
       </c>
       <c r="E44">
-        <v>-0.09170004072497233</v>
+        <v>0.01384915022747544</v>
       </c>
       <c r="F44">
-        <v>-0.08457993314182197</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.1177276946454296</v>
+      </c>
+      <c r="G44">
+        <v>0.09893471396097608</v>
+      </c>
+      <c r="H44">
+        <v>-0.04531195960350907</v>
+      </c>
+      <c r="I44">
+        <v>-0.04751739355516485</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +2002,106 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.02958888400719419</v>
+        <v>-0.02561814153171242</v>
       </c>
       <c r="C46">
-        <v>0.03011798949318395</v>
+        <v>0.03534753089496478</v>
       </c>
       <c r="D46">
-        <v>-0.03466671443342809</v>
+        <v>0.001832646924844387</v>
       </c>
       <c r="E46">
-        <v>-0.03407878366075427</v>
+        <v>0.03207298049532648</v>
       </c>
       <c r="F46">
-        <v>-0.006382642375482252</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.04468540854630235</v>
+      </c>
+      <c r="G46">
+        <v>0.06133631083878333</v>
+      </c>
+      <c r="H46">
+        <v>-0.009347600747472597</v>
+      </c>
+      <c r="I46">
+        <v>-0.004639320097769167</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.09406895928302336</v>
+        <v>-0.08713692316574573</v>
       </c>
       <c r="C47">
-        <v>0.01426717112171188</v>
+        <v>0.01858408691340894</v>
       </c>
       <c r="D47">
-        <v>-0.02182223566789408</v>
+        <v>0.004055569739782463</v>
       </c>
       <c r="E47">
-        <v>-0.0007161732644133915</v>
+        <v>0.02697748813239163</v>
       </c>
       <c r="F47">
-        <v>0.0315237575679935</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.01590146028716679</v>
+      </c>
+      <c r="G47">
+        <v>0.06094992769250053</v>
+      </c>
+      <c r="H47">
+        <v>-0.02230536044815178</v>
+      </c>
+      <c r="I47">
+        <v>-0.03242729074196723</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.0198282585478764</v>
+        <v>-0.02061956529470649</v>
       </c>
       <c r="C48">
-        <v>0.02718850173681087</v>
+        <v>0.01995426865564955</v>
       </c>
       <c r="D48">
-        <v>-0.01899998922706836</v>
+        <v>-0.001715984678324068</v>
       </c>
       <c r="E48">
-        <v>-0.02598471456258121</v>
+        <v>0.01526342354051469</v>
       </c>
       <c r="F48">
-        <v>-0.01203129453057144</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.02470209536928835</v>
+      </c>
+      <c r="G48">
+        <v>0.02704362884016611</v>
+      </c>
+      <c r="H48">
+        <v>-0.01212478766084415</v>
+      </c>
+      <c r="I48">
+        <v>-0.01267918847674091</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +2118,77 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.09202282014381837</v>
+        <v>-0.08784162837740467</v>
       </c>
       <c r="C50">
-        <v>0.03943364648560078</v>
+        <v>0.03976002565248241</v>
       </c>
       <c r="D50">
-        <v>-0.02476212285545553</v>
+        <v>-0.01210729028168813</v>
       </c>
       <c r="E50">
-        <v>-0.0174181801815488</v>
+        <v>0.02749593930591544</v>
       </c>
       <c r="F50">
-        <v>0.03737921456189157</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.007348562343796839</v>
+      </c>
+      <c r="G50">
+        <v>0.03633089895298917</v>
+      </c>
+      <c r="H50">
+        <v>0.01499176856066455</v>
+      </c>
+      <c r="I50">
+        <v>0.006393498835826523</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.05598394094688856</v>
+        <v>-0.03930350526924006</v>
       </c>
       <c r="C51">
-        <v>-0.01267606587013323</v>
+        <v>-0.003770635121990231</v>
       </c>
       <c r="D51">
-        <v>-0.005353304887306098</v>
+        <v>0.01158474847893393</v>
       </c>
       <c r="E51">
-        <v>-0.08525048248008578</v>
+        <v>0.01048934419168284</v>
       </c>
       <c r="F51">
-        <v>-0.02943426417730553</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.09260341681100963</v>
+      </c>
+      <c r="G51">
+        <v>0.0682929732893023</v>
+      </c>
+      <c r="H51">
+        <v>-0.04513947943281359</v>
+      </c>
+      <c r="I51">
+        <v>-0.02437252849601625</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2205,280 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1368427483351508</v>
+        <v>-0.1248024980010895</v>
       </c>
       <c r="C53">
-        <v>0.03309763469690764</v>
+        <v>0.03863825138322025</v>
       </c>
       <c r="D53">
-        <v>-0.04566213120073226</v>
+        <v>0.004034612453747833</v>
       </c>
       <c r="E53">
-        <v>0.01233045489447219</v>
+        <v>0.05754155316945203</v>
       </c>
       <c r="F53">
-        <v>0.0585124995966506</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.04761452350568381</v>
+      </c>
+      <c r="G53">
+        <v>0.009059651544738832</v>
+      </c>
+      <c r="H53">
+        <v>-0.02607241173849922</v>
+      </c>
+      <c r="I53">
+        <v>-0.04218490968013628</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.02822567018394405</v>
+        <v>-0.02627026458688748</v>
       </c>
       <c r="C54">
-        <v>0.01008120843955533</v>
+        <v>0.004814876141744135</v>
       </c>
       <c r="D54">
-        <v>-0.03227613546644859</v>
+        <v>-0.00575362062311246</v>
       </c>
       <c r="E54">
-        <v>-0.02933870285614453</v>
+        <v>0.02823808134436458</v>
       </c>
       <c r="F54">
-        <v>-0.01316615366034268</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.0294311925253069</v>
+      </c>
+      <c r="G54">
+        <v>0.05787649267355548</v>
+      </c>
+      <c r="H54">
+        <v>-0.02740076346724284</v>
+      </c>
+      <c r="I54">
+        <v>-0.02311836320727089</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.1025260697672463</v>
+        <v>-0.0984386756359579</v>
       </c>
       <c r="C55">
-        <v>0.008186570161770287</v>
+        <v>0.03301337744599225</v>
       </c>
       <c r="D55">
-        <v>-0.03980261641508288</v>
+        <v>-0.01304836302960876</v>
       </c>
       <c r="E55">
-        <v>0.03946501951163785</v>
+        <v>0.03750072428393195</v>
       </c>
       <c r="F55">
-        <v>0.0003106665100028027</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.03312729396959382</v>
+      </c>
+      <c r="G55">
+        <v>0.0150616702962715</v>
+      </c>
+      <c r="H55">
+        <v>0.01284616691082623</v>
+      </c>
+      <c r="I55">
+        <v>-0.01602913130331133</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1744016209872323</v>
+        <v>-0.1637464307648868</v>
       </c>
       <c r="C56">
-        <v>-0.006129988238036113</v>
+        <v>0.02074266958956649</v>
       </c>
       <c r="D56">
-        <v>-0.08521962285933032</v>
+        <v>-0.0006402772132178527</v>
       </c>
       <c r="E56">
-        <v>0.07463575896179479</v>
+        <v>0.08880520784134902</v>
       </c>
       <c r="F56">
-        <v>0.07706085180962485</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.0919352297925505</v>
+      </c>
+      <c r="G56">
+        <v>-0.04544899433026895</v>
+      </c>
+      <c r="H56">
+        <v>0.007585723933256251</v>
+      </c>
+      <c r="I56">
+        <v>-0.04350421697801041</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>0.08224918036932288</v>
+        <v>-0.06522272699373713</v>
       </c>
       <c r="C57">
-        <v>0.03405564789041091</v>
+        <v>0.03260105188849856</v>
       </c>
       <c r="D57">
-        <v>-0.01663543499047597</v>
+        <v>0.01753534570784022</v>
       </c>
       <c r="E57">
-        <v>-0.05755296332423795</v>
+        <v>0.007127363563206815</v>
       </c>
       <c r="F57">
-        <v>-0.01338707632478701</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.06401745150425864</v>
+      </c>
+      <c r="G57">
+        <v>0.03074807927616343</v>
+      </c>
+      <c r="H57">
+        <v>-0.01515017884812872</v>
+      </c>
+      <c r="I57">
+        <v>-0.005087174480625849</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.1986969576091989</v>
+        <v>-0.2082983064910518</v>
       </c>
       <c r="C58">
-        <v>0.04031643475766849</v>
+        <v>0.1065946634075047</v>
       </c>
       <c r="D58">
-        <v>-0.0004113574384075289</v>
+        <v>0.08857931912673318</v>
       </c>
       <c r="E58">
-        <v>-0.09751892465872027</v>
+        <v>-0.01553956237355822</v>
       </c>
       <c r="F58">
-        <v>-0.09418169950305055</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.269854829587316</v>
+      </c>
+      <c r="G58">
+        <v>0.337735435884401</v>
+      </c>
+      <c r="H58">
+        <v>0.3410255621175804</v>
+      </c>
+      <c r="I58">
+        <v>0.3712255270319751</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.02825048302897934</v>
+        <v>-0.05318233788637267</v>
       </c>
       <c r="C59">
-        <v>-0.1981472522422236</v>
+        <v>-0.198153329549473</v>
       </c>
       <c r="D59">
-        <v>0.002234426187716191</v>
+        <v>0.02393242825143383</v>
       </c>
       <c r="E59">
-        <v>-0.03669927007067043</v>
+        <v>-0.01559416760400169</v>
       </c>
       <c r="F59">
-        <v>-0.03195430873257198</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.06658195608899363</v>
+      </c>
+      <c r="G59">
+        <v>-0.01545432931475463</v>
+      </c>
+      <c r="H59">
+        <v>-0.01566582328906533</v>
+      </c>
+      <c r="I59">
+        <v>-0.05371998707983242</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1894400043056156</v>
+        <v>-0.191974225895603</v>
       </c>
       <c r="C60">
-        <v>-0.07984518098032947</v>
+        <v>-0.05061100831210434</v>
       </c>
       <c r="D60">
-        <v>-0.005303535857952317</v>
+        <v>0.05416527734877127</v>
       </c>
       <c r="E60">
-        <v>-0.1345282793816777</v>
+        <v>0.01522976810706769</v>
       </c>
       <c r="F60">
-        <v>-0.1267990970137917</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.1993156705960973</v>
+      </c>
+      <c r="G60">
+        <v>-0.3013436153254425</v>
+      </c>
+      <c r="H60">
+        <v>-0.0335703339524674</v>
+      </c>
+      <c r="I60">
+        <v>0.08789242533586668</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.0426690265601972</v>
+        <v>-0.03851390196176678</v>
       </c>
       <c r="C61">
-        <v>0.01257201845615459</v>
+        <v>0.02922055862392997</v>
       </c>
       <c r="D61">
-        <v>-0.002342121722010158</v>
+        <v>-0.001416583604307689</v>
       </c>
       <c r="E61">
-        <v>-0.01967228182275322</v>
+        <v>0.007883017334534947</v>
       </c>
       <c r="F61">
-        <v>-0.02761220384277286</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.03714537835799606</v>
+      </c>
+      <c r="G61">
+        <v>0.0002851500089618565</v>
+      </c>
+      <c r="H61">
+        <v>-0.01501407362888625</v>
+      </c>
+      <c r="I61">
+        <v>0.03382073900785416</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2495,222 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.04257450975700887</v>
+        <v>-0.03146119419091115</v>
       </c>
       <c r="C63">
-        <v>0.02036957322129557</v>
+        <v>0.02322191713765182</v>
       </c>
       <c r="D63">
-        <v>-0.01440131799061684</v>
+        <v>0.001111732577673477</v>
       </c>
       <c r="E63">
-        <v>-0.03874025533956333</v>
+        <v>0.0154164732543217</v>
       </c>
       <c r="F63">
-        <v>-0.01786321601191225</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.02807703579882046</v>
+      </c>
+      <c r="G63">
+        <v>0.04953629375815151</v>
+      </c>
+      <c r="H63">
+        <v>0.001147477505261934</v>
+      </c>
+      <c r="I63">
+        <v>-0.03417774760795664</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.07564054124536608</v>
+        <v>-0.06028099740710104</v>
       </c>
       <c r="C64">
-        <v>0.05338072029735151</v>
+        <v>0.04389203925354033</v>
       </c>
       <c r="D64">
-        <v>-0.05807774860214897</v>
+        <v>-0.0155392476311436</v>
       </c>
       <c r="E64">
-        <v>0.00941313538067279</v>
+        <v>0.04456491722003705</v>
       </c>
       <c r="F64">
-        <v>-0.04551857755061784</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.04199105065957422</v>
+      </c>
+      <c r="G64">
+        <v>0.01381418864560462</v>
+      </c>
+      <c r="H64">
+        <v>-0.06930927791495461</v>
+      </c>
+      <c r="I64">
+        <v>-0.03277391881075594</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>-0.02255534177682684</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.01069823045630489</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.005581882985331429</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.005760014746752589</v>
       </c>
       <c r="F65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.003816506453315362</v>
+      </c>
+      <c r="G65">
+        <v>-0.01627920007727193</v>
+      </c>
+      <c r="H65">
+        <v>0.01747338526009893</v>
+      </c>
+      <c r="I65">
+        <v>0.01720270485280833</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.08040471756793935</v>
+        <v>-0.06759625675780659</v>
       </c>
       <c r="C66">
-        <v>0.03965870509130685</v>
+        <v>0.0549667774551991</v>
       </c>
       <c r="D66">
-        <v>-0.03397903485980498</v>
+        <v>0.01149930432545084</v>
       </c>
       <c r="E66">
-        <v>-0.05107759781785044</v>
+        <v>0.0474682170086734</v>
       </c>
       <c r="F66">
-        <v>-0.05809901120931057</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.06668300710917538</v>
+      </c>
+      <c r="G66">
+        <v>0.0009440131876710172</v>
+      </c>
+      <c r="H66">
+        <v>-0.01012899104442139</v>
+      </c>
+      <c r="I66">
+        <v>0.01510499025272285</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.05609620016798789</v>
+        <v>-0.04814391629007909</v>
       </c>
       <c r="C67">
-        <v>-0.003727996428412347</v>
+        <v>-0.003225905661241061</v>
       </c>
       <c r="D67">
-        <v>-0.01041875019712549</v>
+        <v>0.001952985828653423</v>
       </c>
       <c r="E67">
-        <v>-0.01157505152767052</v>
+        <v>0.008890111352738105</v>
       </c>
       <c r="F67">
-        <v>-0.01393754366091512</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.03622629320801429</v>
+      </c>
+      <c r="G67">
+        <v>0.01187933199498799</v>
+      </c>
+      <c r="H67">
+        <v>-0.04202643253024588</v>
+      </c>
+      <c r="I67">
+        <v>0.03889482179376219</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.04117685686926422</v>
+        <v>-0.06428820956555105</v>
       </c>
       <c r="C68">
-        <v>-0.2425518290304399</v>
+        <v>-0.2333918831764654</v>
       </c>
       <c r="D68">
-        <v>0.02238810901640593</v>
+        <v>0.02501769064968789</v>
       </c>
       <c r="E68">
-        <v>-0.03926656239633002</v>
+        <v>-0.03486881175058115</v>
       </c>
       <c r="F68">
-        <v>-0.01748031933013995</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.04791108972253068</v>
+      </c>
+      <c r="G68">
+        <v>-0.008405332830671403</v>
+      </c>
+      <c r="H68">
+        <v>0.009018171307262346</v>
+      </c>
+      <c r="I68">
+        <v>-0.1311950858979543</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.07518913399463184</v>
+        <v>-0.07268280044139934</v>
       </c>
       <c r="C69">
-        <v>0.01215226484746488</v>
+        <v>0.02001101990711043</v>
       </c>
       <c r="D69">
-        <v>-0.02564256326703449</v>
+        <v>0.005495388200069359</v>
       </c>
       <c r="E69">
-        <v>-0.004964916663443233</v>
+        <v>0.0312722353777414</v>
       </c>
       <c r="F69">
-        <v>0.02388406526220294</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.004061310243957562</v>
+      </c>
+      <c r="G69">
+        <v>0.03592028433676739</v>
+      </c>
+      <c r="H69">
+        <v>-0.01737646995098888</v>
+      </c>
+      <c r="I69">
+        <v>-0.005683761891381515</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2727,251 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.0365091383737085</v>
+        <v>-0.05936852624288535</v>
       </c>
       <c r="C71">
-        <v>-0.2822101549999853</v>
+        <v>-0.2508534203911769</v>
       </c>
       <c r="D71">
-        <v>0.03642793039934304</v>
+        <v>0.02903146256878433</v>
       </c>
       <c r="E71">
-        <v>-0.09197124266977601</v>
+        <v>-0.06199635016822965</v>
       </c>
       <c r="F71">
-        <v>-0.02315345779945813</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.06677119307488566</v>
+      </c>
+      <c r="G71">
+        <v>-0.0006122658773658528</v>
+      </c>
+      <c r="H71">
+        <v>-0.01958734639232985</v>
+      </c>
+      <c r="I71">
+        <v>-0.1159884322658163</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1319918217782622</v>
+        <v>-0.1241768291766869</v>
       </c>
       <c r="C72">
-        <v>-0.0188138437897789</v>
+        <v>0.0297722921891425</v>
       </c>
       <c r="D72">
-        <v>-0.04817420758842915</v>
+        <v>0.005770250922591066</v>
       </c>
       <c r="E72">
-        <v>-0.0346688062568673</v>
+        <v>0.06625930371489155</v>
       </c>
       <c r="F72">
-        <v>-0.06435373326536274</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.08072282567441602</v>
+      </c>
+      <c r="G72">
+        <v>-0.02441983309398019</v>
+      </c>
+      <c r="H72">
+        <v>0.03754950143006174</v>
+      </c>
+      <c r="I72">
+        <v>0.1093505959297672</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.2942120865826572</v>
+        <v>-0.2749401897183708</v>
       </c>
       <c r="C73">
-        <v>-0.1737495607091044</v>
+        <v>-0.07889836798344267</v>
       </c>
       <c r="D73">
-        <v>0.05891968348250547</v>
+        <v>0.09273875525115612</v>
       </c>
       <c r="E73">
-        <v>-0.2179266021109273</v>
+        <v>-0.03658332917299185</v>
       </c>
       <c r="F73">
-        <v>-0.2642769180582982</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.3126408502422522</v>
+      </c>
+      <c r="G73">
+        <v>-0.4920528599360235</v>
+      </c>
+      <c r="H73">
+        <v>0.004508498448223014</v>
+      </c>
+      <c r="I73">
+        <v>0.266009253782971</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1545493602865927</v>
+        <v>-0.14946811716389</v>
       </c>
       <c r="C74">
-        <v>0.02343681464045227</v>
+        <v>0.035564244760118</v>
       </c>
       <c r="D74">
-        <v>-0.03921357884085602</v>
+        <v>0.0109388542241875</v>
       </c>
       <c r="E74">
-        <v>0.009719168890947098</v>
+        <v>0.05157749410823757</v>
       </c>
       <c r="F74">
-        <v>0.05019131867570861</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.06504264076273271</v>
+      </c>
+      <c r="G74">
+        <v>-0.02533270356289176</v>
+      </c>
+      <c r="H74">
+        <v>0.005279244144531564</v>
+      </c>
+      <c r="I74">
+        <v>-0.03210459014407242</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2370253751802185</v>
+        <v>-0.2420490448483059</v>
       </c>
       <c r="C75">
-        <v>0.01451284248638966</v>
+        <v>0.02747140755468445</v>
       </c>
       <c r="D75">
-        <v>-0.07743531033580546</v>
+        <v>0.02637348409464852</v>
       </c>
       <c r="E75">
-        <v>0.05102655958821777</v>
+        <v>0.1166039279361572</v>
       </c>
       <c r="F75">
-        <v>0.1375499247473947</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.1486008137560784</v>
+      </c>
+      <c r="G75">
+        <v>-0.02194630924305965</v>
+      </c>
+      <c r="H75">
+        <v>-0.01287205234143734</v>
+      </c>
+      <c r="I75">
+        <v>-0.08099862000213218</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.2479300471988499</v>
+        <v>-0.2623795153629555</v>
       </c>
       <c r="C76">
-        <v>-0.02184473384851787</v>
+        <v>0.01483360573450587</v>
       </c>
       <c r="D76">
-        <v>-0.1074302214306673</v>
+        <v>-0.01334952521221258</v>
       </c>
       <c r="E76">
-        <v>0.1048730661942124</v>
+        <v>0.1393574924750877</v>
       </c>
       <c r="F76">
-        <v>0.09826771406784308</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.1832079497798436</v>
+      </c>
+      <c r="G76">
+        <v>-0.05155570844963839</v>
+      </c>
+      <c r="H76">
+        <v>0.05935063830847335</v>
+      </c>
+      <c r="I76">
+        <v>-0.04977978561869364</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.1339586983726317</v>
+        <v>-0.1206036414919659</v>
       </c>
       <c r="C77">
-        <v>0.066145534077773</v>
+        <v>0.07744378748299961</v>
       </c>
       <c r="D77">
-        <v>0.03276982153902466</v>
+        <v>0.005174241281741168</v>
       </c>
       <c r="E77">
-        <v>-0.06821061791167175</v>
+        <v>-0.03100895355039253</v>
       </c>
       <c r="F77">
-        <v>-0.148349956289766</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.1587582034656694</v>
+      </c>
+      <c r="G77">
+        <v>0.1791349981543671</v>
+      </c>
+      <c r="H77">
+        <v>0.04460669603526352</v>
+      </c>
+      <c r="I77">
+        <v>-0.2807617671194299</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.08252464987958003</v>
+        <v>-0.07412627663885936</v>
       </c>
       <c r="C78">
-        <v>0.05751614460433659</v>
+        <v>0.07602191154223374</v>
       </c>
       <c r="D78">
-        <v>0.01269951537042528</v>
+        <v>-0.006829093255363068</v>
       </c>
       <c r="E78">
-        <v>-0.0245543434906327</v>
+        <v>0.01261687598846822</v>
       </c>
       <c r="F78">
-        <v>-0.03900421113559392</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.07046177761809595</v>
+      </c>
+      <c r="G78">
+        <v>0.01410496114553409</v>
+      </c>
+      <c r="H78">
+        <v>-0.01160796219395788</v>
+      </c>
+      <c r="I78">
+        <v>-0.0376232237596802</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2988,77 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.05902369961071672</v>
+        <v>-0.1351208336056083</v>
       </c>
       <c r="C80">
-        <v>-0.04651663478028069</v>
+        <v>-0.06959223666549431</v>
       </c>
       <c r="D80">
-        <v>0.04878460437721738</v>
+        <v>-0.9733844205371325</v>
       </c>
       <c r="E80">
-        <v>0.8037947814139557</v>
+        <v>-0.05911751158790226</v>
       </c>
       <c r="F80">
-        <v>-0.5134089440497049</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.0489046612860111</v>
+      </c>
+      <c r="G80">
+        <v>-0.03454330608771883</v>
+      </c>
+      <c r="H80">
+        <v>-0.04235227675057324</v>
+      </c>
+      <c r="I80">
+        <v>0.05902952055150722</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1622742929816105</v>
+        <v>-0.1789254679501669</v>
       </c>
       <c r="C81">
-        <v>0.01295298965718149</v>
+        <v>0.01161137039664105</v>
       </c>
       <c r="D81">
-        <v>-0.05462887852653507</v>
+        <v>0.005602766981240019</v>
       </c>
       <c r="E81">
-        <v>0.08947719187487456</v>
+        <v>0.0856890173616862</v>
       </c>
       <c r="F81">
-        <v>0.1475426360804207</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.1578708882953197</v>
+      </c>
+      <c r="G81">
+        <v>-0.008327082503706902</v>
+      </c>
+      <c r="H81">
+        <v>0.02479938543049076</v>
+      </c>
+      <c r="I81">
+        <v>-0.04464255454243309</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +3075,48 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.08995698394408316</v>
+        <v>-0.06802351565059922</v>
       </c>
       <c r="C83">
-        <v>0.07761119461001456</v>
+        <v>0.05839848560485631</v>
       </c>
       <c r="D83">
-        <v>0.06665071452419667</v>
+        <v>0.01194937387896883</v>
       </c>
       <c r="E83">
-        <v>-0.0492937667593725</v>
+        <v>-0.03446202271755065</v>
       </c>
       <c r="F83">
-        <v>0.01368842230966708</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.04600571101111495</v>
+      </c>
+      <c r="G83">
+        <v>0.05231660948144938</v>
+      </c>
+      <c r="H83">
+        <v>-0.06058618284982534</v>
+      </c>
+      <c r="I83">
+        <v>-0.03865230269029411</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +3133,338 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.2386341759014742</v>
+        <v>-0.2473734206040255</v>
       </c>
       <c r="C85">
-        <v>0.05014789745613582</v>
+        <v>0.05565174302937263</v>
       </c>
       <c r="D85">
-        <v>-0.07085075550051817</v>
+        <v>0.003807030878820733</v>
       </c>
       <c r="E85">
-        <v>0.1122836038370328</v>
+        <v>0.1122831295661876</v>
       </c>
       <c r="F85">
-        <v>0.1129777014141729</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.1828942430197124</v>
+      </c>
+      <c r="G85">
+        <v>0.00566837042665433</v>
+      </c>
+      <c r="H85">
+        <v>0.0253902062832821</v>
+      </c>
+      <c r="I85">
+        <v>-0.06465055997870811</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.03903639798781654</v>
+        <v>-0.02738530170619909</v>
       </c>
       <c r="C86">
-        <v>0.04891283268710265</v>
+        <v>0.05104023651490702</v>
       </c>
       <c r="D86">
-        <v>-0.007235398669174953</v>
+        <v>-0.0001498866095166676</v>
       </c>
       <c r="E86">
-        <v>-0.03996324246379965</v>
+        <v>0.01745637122204939</v>
       </c>
       <c r="F86">
-        <v>-0.05800842316879187</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.08138925064104036</v>
+      </c>
+      <c r="G86">
+        <v>0.06889806148530754</v>
+      </c>
+      <c r="H86">
+        <v>0.0006309927762933496</v>
+      </c>
+      <c r="I86">
+        <v>-0.02293657604083868</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.03106313236868991</v>
+        <v>-0.03421327943104849</v>
       </c>
       <c r="C87">
-        <v>-0.05391464458701421</v>
+        <v>-0.008104760641362792</v>
       </c>
       <c r="D87">
-        <v>0.005868846548734183</v>
+        <v>0.001889728417572698</v>
       </c>
       <c r="E87">
-        <v>-0.05484492923380738</v>
+        <v>-0.0006824550812120043</v>
       </c>
       <c r="F87">
-        <v>-0.08494245717492348</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.1034232516902082</v>
+      </c>
+      <c r="G87">
+        <v>0.005732831432821641</v>
+      </c>
+      <c r="H87">
+        <v>0.01792335902901823</v>
+      </c>
+      <c r="I87">
+        <v>-0.001849663906858486</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.02962427024941399</v>
+        <v>-0.03160946807511836</v>
       </c>
       <c r="C88">
-        <v>0.0273842496729824</v>
+        <v>0.009849756276626497</v>
       </c>
       <c r="D88">
-        <v>-0.003016255987911447</v>
+        <v>-0.008680655120162794</v>
       </c>
       <c r="E88">
-        <v>0.01035341793899352</v>
+        <v>0.006736846302263984</v>
       </c>
       <c r="F88">
-        <v>0.006669788133935635</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.01253299082349584</v>
+      </c>
+      <c r="G88">
+        <v>0.03518192831457491</v>
+      </c>
+      <c r="H88">
+        <v>-0.03905459008431726</v>
+      </c>
+      <c r="I88">
+        <v>0.01542795171394611</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.04269444534463811</v>
+        <v>-0.09324042842011974</v>
       </c>
       <c r="C89">
-        <v>-0.3857038702670649</v>
+        <v>-0.386213672214967</v>
       </c>
       <c r="D89">
-        <v>0.1022871814193357</v>
+        <v>0.05890200647729772</v>
       </c>
       <c r="E89">
-        <v>-0.05177408754209693</v>
+        <v>-0.07890211768365128</v>
       </c>
       <c r="F89">
-        <v>0.03693091462336541</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.03049387980584548</v>
+      </c>
+      <c r="G89">
+        <v>0.06381747527004557</v>
+      </c>
+      <c r="H89">
+        <v>-0.02954579334093924</v>
+      </c>
+      <c r="I89">
+        <v>-0.2258184284750591</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.03067327975982711</v>
+        <v>-0.05992184374251872</v>
       </c>
       <c r="C90">
-        <v>-0.2975747040698231</v>
+        <v>-0.3158234074277973</v>
       </c>
       <c r="D90">
-        <v>0.05486668964491324</v>
+        <v>0.02940647226399112</v>
       </c>
       <c r="E90">
-        <v>-0.02198670550425081</v>
+        <v>-0.0628532061971443</v>
       </c>
       <c r="F90">
-        <v>-0.04043080542006963</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.03155240510041381</v>
+      </c>
+      <c r="G90">
+        <v>0.01321800979700601</v>
+      </c>
+      <c r="H90">
+        <v>-0.008381327565917968</v>
+      </c>
+      <c r="I90">
+        <v>-0.1855506240049351</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.274611722409103</v>
+        <v>-0.2856990939062045</v>
       </c>
       <c r="C91">
-        <v>0.05581236039196349</v>
+        <v>0.05975257675311375</v>
       </c>
       <c r="D91">
-        <v>-0.08107682077428831</v>
+        <v>0.01251261680782432</v>
       </c>
       <c r="E91">
-        <v>0.1791168088536149</v>
+        <v>0.109644496143836</v>
       </c>
       <c r="F91">
-        <v>0.214114003250233</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.2770699708063822</v>
+      </c>
+      <c r="G91">
+        <v>-0.0182451792891264</v>
+      </c>
+      <c r="H91">
+        <v>0.04521186995571563</v>
+      </c>
+      <c r="I91">
+        <v>-0.08742387138995458</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.07191731144614993</v>
+        <v>-0.1320300694773747</v>
       </c>
       <c r="C92">
-        <v>-0.3925176953258691</v>
+        <v>-0.4028831049787459</v>
       </c>
       <c r="D92">
-        <v>0.1639656759165292</v>
+        <v>0.01659717638990145</v>
       </c>
       <c r="E92">
-        <v>0.113259632773442</v>
+        <v>-0.1117393835436579</v>
       </c>
       <c r="F92">
-        <v>0.08476291588044367</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.1211524962238058</v>
+      </c>
+      <c r="G92">
+        <v>0.4506971375945238</v>
+      </c>
+      <c r="H92">
+        <v>0.04558103855716868</v>
+      </c>
+      <c r="I92">
+        <v>0.5285637672195322</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.02780528265178331</v>
+        <v>-0.07855617240569082</v>
       </c>
       <c r="C93">
-        <v>-0.3686345677239562</v>
+        <v>-0.3896710840646366</v>
       </c>
       <c r="D93">
-        <v>0.08575456967793942</v>
+        <v>0.04989784085131487</v>
       </c>
       <c r="E93">
-        <v>0.001706468503289957</v>
+        <v>-0.1059036163238716</v>
       </c>
       <c r="F93">
-        <v>0.03155436373966092</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.004604660205438523</v>
+      </c>
+      <c r="G93">
+        <v>-0.006815242238710368</v>
+      </c>
+      <c r="H93">
+        <v>-0.05104681814090197</v>
+      </c>
+      <c r="I93">
+        <v>-0.1108329686904695</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.2887938025072932</v>
+        <v>-0.3085638068792253</v>
       </c>
       <c r="C94">
-        <v>-0.07197177824965741</v>
+        <v>-0.02802626090730905</v>
       </c>
       <c r="D94">
-        <v>-0.0306918508518422</v>
+        <v>0.0404346439555263</v>
       </c>
       <c r="E94">
-        <v>0.2090163657395514</v>
+        <v>0.1254003358100045</v>
       </c>
       <c r="F94">
-        <v>0.2822399250690487</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.3198342465893788</v>
+      </c>
+      <c r="G94">
+        <v>0.04214157762051085</v>
+      </c>
+      <c r="H94">
+        <v>0.2266153844343473</v>
+      </c>
+      <c r="I94">
+        <v>-0.02949019470451754</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.1663571011917383</v>
+        <v>-0.1315004686151937</v>
       </c>
       <c r="C95">
-        <v>0.05121291984459201</v>
+        <v>0.05756718186532764</v>
       </c>
       <c r="D95">
-        <v>0.0003532094730424988</v>
+        <v>0.08264952484994326</v>
       </c>
       <c r="E95">
-        <v>0.0483987613716409</v>
+        <v>0.03453283494738172</v>
       </c>
       <c r="F95">
-        <v>0.3904981893749953</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.1083895937712079</v>
+      </c>
+      <c r="G95">
+        <v>0.1348424604454646</v>
+      </c>
+      <c r="H95">
+        <v>-0.8774599136119862</v>
+      </c>
+      <c r="I95">
+        <v>0.203082269484992</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3481,19 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3510,48 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.2158413431460249</v>
+        <v>-0.2091176430462111</v>
       </c>
       <c r="C98">
-        <v>-0.08793970322577796</v>
+        <v>-0.05894103577599393</v>
       </c>
       <c r="D98">
-        <v>0.04224458703725225</v>
+        <v>0.0655471038132965</v>
       </c>
       <c r="E98">
-        <v>-0.1005870718392685</v>
+        <v>-0.02793860851288633</v>
       </c>
       <c r="F98">
-        <v>-0.04309660777266424</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.1662216700954219</v>
+      </c>
+      <c r="G98">
+        <v>-0.3299928962226961</v>
+      </c>
+      <c r="H98">
+        <v>-0.03246396663330334</v>
+      </c>
+      <c r="I98">
+        <v>0.1555205368138733</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3568,19 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,70 +3597,106 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.02608240313468886</v>
+        <v>-0.01768001526646018</v>
       </c>
       <c r="C101">
-        <v>0.02459889438574991</v>
+        <v>0.02871486975488699</v>
       </c>
       <c r="D101">
-        <v>-0.0340938822031123</v>
+        <v>-0.0059623065403052</v>
       </c>
       <c r="E101">
-        <v>-0.02235334230071338</v>
+        <v>0.03549210387624306</v>
       </c>
       <c r="F101">
-        <v>-0.02006869927932925</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.06319207708385369</v>
+      </c>
+      <c r="G101">
+        <v>0.1122107338380603</v>
+      </c>
+      <c r="H101">
+        <v>0.03042435844362169</v>
+      </c>
+      <c r="I101">
+        <v>0.07969597352352059</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1088803503257133</v>
+        <v>-0.1163931717872784</v>
       </c>
       <c r="C102">
-        <v>0.03512579118211124</v>
+        <v>0.02990747000448325</v>
       </c>
       <c r="D102">
-        <v>-0.04318646676210929</v>
+        <v>-0.007441211154849222</v>
       </c>
       <c r="E102">
-        <v>0.07734293782781666</v>
+        <v>0.05570184070581704</v>
       </c>
       <c r="F102">
-        <v>0.06472146264891183</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.1132660924904641</v>
+      </c>
+      <c r="G102">
+        <v>-0.006288360440052062</v>
+      </c>
+      <c r="H102">
+        <v>0.005634996024064714</v>
+      </c>
+      <c r="I102">
+        <v>-0.0692284127466132</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>0.02179045191597622</v>
+        <v>-0.02893915464303047</v>
       </c>
       <c r="C103">
-        <v>0.00793077234243038</v>
+        <v>0.007730158188295594</v>
       </c>
       <c r="D103">
-        <v>-0.01197948143923079</v>
+        <v>-0.009014739613549596</v>
       </c>
       <c r="E103">
-        <v>0.00942209602803983</v>
+        <v>0.01931301383436319</v>
       </c>
       <c r="F103">
-        <v>0.03552017557901442</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.02687471898613667</v>
+      </c>
+      <c r="G103">
+        <v>0.01402913093863501</v>
+      </c>
+      <c r="H103">
+        <v>-0.008783032102694963</v>
+      </c>
+      <c r="I103">
+        <v>-0.02016810260705059</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +3711,15 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
